--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.968236086957</v>
+        <v>167.908216</v>
       </c>
       <c r="H2">
-        <v>162.968236086957</v>
+        <v>503.724648</v>
       </c>
       <c r="I2">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J2">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N2">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q2">
-        <v>2761.316902831693</v>
+        <v>3086.568918731032</v>
       </c>
       <c r="R2">
-        <v>2761.316902831693</v>
+        <v>27779.12026857929</v>
       </c>
       <c r="S2">
-        <v>0.02646803216357396</v>
+        <v>0.02787775858878197</v>
       </c>
       <c r="T2">
-        <v>0.02646803216357396</v>
+        <v>0.02787775858878197</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.968236086957</v>
+        <v>167.908216</v>
       </c>
       <c r="H3">
-        <v>162.968236086957</v>
+        <v>503.724648</v>
       </c>
       <c r="I3">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J3">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q3">
-        <v>13388.8288360246</v>
+        <v>13876.49550383441</v>
       </c>
       <c r="R3">
-        <v>13388.8288360246</v>
+        <v>124888.4595345097</v>
       </c>
       <c r="S3">
-        <v>0.1283358501521784</v>
+        <v>0.1253319144654824</v>
       </c>
       <c r="T3">
-        <v>0.1283358501521784</v>
+        <v>0.1253319144654824</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.968236086957</v>
+        <v>167.908216</v>
       </c>
       <c r="H4">
-        <v>162.968236086957</v>
+        <v>503.724648</v>
       </c>
       <c r="I4">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J4">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N4">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q4">
-        <v>14819.14168385673</v>
+        <v>15321.79205852195</v>
       </c>
       <c r="R4">
-        <v>14819.14168385673</v>
+        <v>137896.1285266975</v>
       </c>
       <c r="S4">
-        <v>0.1420458181828566</v>
+        <v>0.1383857711917214</v>
       </c>
       <c r="T4">
-        <v>0.1420458181828566</v>
+        <v>0.1383857711917215</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>162.968236086957</v>
+        <v>167.908216</v>
       </c>
       <c r="H5">
-        <v>162.968236086957</v>
+        <v>503.724648</v>
       </c>
       <c r="I5">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J5">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N5">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q5">
-        <v>12759.57704200916</v>
+        <v>13648.99957238509</v>
       </c>
       <c r="R5">
-        <v>12759.57704200916</v>
+        <v>122840.9961514658</v>
       </c>
       <c r="S5">
-        <v>0.1223042872026641</v>
+        <v>0.1232771809332463</v>
       </c>
       <c r="T5">
-        <v>0.1223042872026641</v>
+        <v>0.1232771809332463</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>162.968236086957</v>
+        <v>167.908216</v>
       </c>
       <c r="H6">
-        <v>162.968236086957</v>
+        <v>503.724648</v>
       </c>
       <c r="I6">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J6">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N6">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q6">
-        <v>2150.565692032738</v>
+        <v>2443.764664091315</v>
       </c>
       <c r="R6">
-        <v>2150.565692032738</v>
+        <v>21993.88197682183</v>
       </c>
       <c r="S6">
-        <v>0.02061380272877381</v>
+        <v>0.02207197802709106</v>
       </c>
       <c r="T6">
-        <v>0.02061380272877381</v>
+        <v>0.02207197802709106</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>203.106970240312</v>
+        <v>210.785085</v>
       </c>
       <c r="H7">
-        <v>203.106970240312</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I7">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879642</v>
       </c>
       <c r="J7">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879643</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N7">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q7">
-        <v>3441.423454496073</v>
+        <v>3874.751976955544</v>
       </c>
       <c r="R7">
-        <v>3441.423454496073</v>
+        <v>34872.7677925999</v>
       </c>
       <c r="S7">
-        <v>0.03298705287635427</v>
+        <v>0.03499659429259785</v>
       </c>
       <c r="T7">
-        <v>0.03298705287635427</v>
+        <v>0.03499659429259785</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>203.106970240312</v>
+        <v>210.785085</v>
       </c>
       <c r="H8">
-        <v>203.106970240312</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I8">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879642</v>
       </c>
       <c r="J8">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879643</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q8">
-        <v>16686.46924852322</v>
+        <v>17419.98309527542</v>
       </c>
       <c r="R8">
-        <v>16686.46924852322</v>
+        <v>156779.8478574788</v>
       </c>
       <c r="S8">
-        <v>0.1599447004121425</v>
+        <v>0.1573365429826223</v>
       </c>
       <c r="T8">
-        <v>0.1599447004121425</v>
+        <v>0.1573365429826223</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>203.106970240312</v>
+        <v>210.785085</v>
       </c>
       <c r="H9">
-        <v>203.106970240312</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I9">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879642</v>
       </c>
       <c r="J9">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879643</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N9">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q9">
-        <v>18469.0651457014</v>
+        <v>19234.34908871805</v>
       </c>
       <c r="R9">
-        <v>18469.0651457014</v>
+        <v>173109.1417984624</v>
       </c>
       <c r="S9">
-        <v>0.1770314047642517</v>
+        <v>0.1737238191098257</v>
       </c>
       <c r="T9">
-        <v>0.1770314047642517</v>
+        <v>0.1737238191098258</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>203.106970240312</v>
+        <v>210.785085</v>
       </c>
       <c r="H10">
-        <v>203.106970240312</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I10">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879642</v>
       </c>
       <c r="J10">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879643</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N10">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q10">
-        <v>15902.23405969438</v>
+        <v>17134.39403721706</v>
       </c>
       <c r="R10">
-        <v>15902.23405969438</v>
+        <v>154209.5463349536</v>
       </c>
       <c r="S10">
-        <v>0.1524275761804246</v>
+        <v>0.1547571148130995</v>
       </c>
       <c r="T10">
-        <v>0.1524275761804246</v>
+        <v>0.1547571148130995</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>203.106970240312</v>
+        <v>210.785085</v>
       </c>
       <c r="H11">
-        <v>203.106970240312</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I11">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879642</v>
       </c>
       <c r="J11">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879643</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N11">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q11">
-        <v>2680.245503660377</v>
+        <v>3067.801890292755</v>
       </c>
       <c r="R11">
-        <v>2680.245503660377</v>
+        <v>27610.21701263479</v>
       </c>
       <c r="S11">
-        <v>0.02569093903144853</v>
+        <v>0.0277082555898189</v>
       </c>
       <c r="T11">
-        <v>0.02569093903144853</v>
+        <v>0.02770825558981891</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>4.50272055453184</v>
+        <v>0.047383</v>
       </c>
       <c r="H12">
-        <v>4.50272055453184</v>
+        <v>0.142149</v>
       </c>
       <c r="I12">
-        <v>0.0121505363053316</v>
+        <v>0.0001233039491868891</v>
       </c>
       <c r="J12">
-        <v>0.0121505363053316</v>
+        <v>0.0001233039491868892</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N12">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q12">
-        <v>76.29363043066994</v>
+        <v>0.8710169076909999</v>
       </c>
       <c r="R12">
-        <v>76.29363043066994</v>
+        <v>7.839152169218999</v>
       </c>
       <c r="S12">
-        <v>0.0007312968178494791</v>
+        <v>7.866987492811287E-06</v>
       </c>
       <c r="T12">
-        <v>0.0007312968178494791</v>
+        <v>7.866987492811287E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>4.50272055453184</v>
+        <v>0.047383</v>
       </c>
       <c r="H13">
-        <v>4.50272055453184</v>
+        <v>0.142149</v>
       </c>
       <c r="I13">
-        <v>0.0121505363053316</v>
+        <v>0.0001233039491868891</v>
       </c>
       <c r="J13">
-        <v>0.0121505363053316</v>
+        <v>0.0001233039491868892</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q13">
-        <v>369.9257981101847</v>
+        <v>3.915889300248333</v>
       </c>
       <c r="R13">
-        <v>369.9257981101847</v>
+        <v>35.24300370223499</v>
       </c>
       <c r="S13">
-        <v>0.003545847241392462</v>
+        <v>3.536814483883237E-05</v>
       </c>
       <c r="T13">
-        <v>0.003545847241392462</v>
+        <v>3.536814483883239E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>4.50272055453184</v>
+        <v>0.047383</v>
       </c>
       <c r="H14">
-        <v>4.50272055453184</v>
+        <v>0.142149</v>
       </c>
       <c r="I14">
-        <v>0.0121505363053316</v>
+        <v>0.0001233039491868891</v>
       </c>
       <c r="J14">
-        <v>0.0121505363053316</v>
+        <v>0.0001233039491868892</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N14">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q14">
-        <v>409.4445363255769</v>
+        <v>4.323745975056667</v>
       </c>
       <c r="R14">
-        <v>409.4445363255769</v>
+        <v>38.91371377551</v>
       </c>
       <c r="S14">
-        <v>0.003924645934536381</v>
+        <v>3.905188889849998E-05</v>
       </c>
       <c r="T14">
-        <v>0.003924645934536381</v>
+        <v>3.905188889849998E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>4.50272055453184</v>
+        <v>0.047383</v>
       </c>
       <c r="H15">
-        <v>4.50272055453184</v>
+        <v>0.142149</v>
       </c>
       <c r="I15">
-        <v>0.0121505363053316</v>
+        <v>0.0001233039491868891</v>
       </c>
       <c r="J15">
-        <v>0.0121505363053316</v>
+        <v>0.0001233039491868892</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N15">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q15">
-        <v>352.5399255320613</v>
+        <v>3.851690894853667</v>
       </c>
       <c r="R15">
-        <v>352.5399255320613</v>
+        <v>34.665218053683</v>
       </c>
       <c r="S15">
-        <v>0.003379198554992987</v>
+        <v>3.478830758442463E-05</v>
       </c>
       <c r="T15">
-        <v>0.003379198554992987</v>
+        <v>3.478830758442465E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.047383</v>
+      </c>
+      <c r="H16">
+        <v>0.142149</v>
+      </c>
+      <c r="I16">
+        <v>0.0001233039491868891</v>
+      </c>
+      <c r="J16">
+        <v>0.0001233039491868892</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="N16">
+        <v>43.662509</v>
+      </c>
+      <c r="O16">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="P16">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="Q16">
+        <v>0.6896202213156667</v>
+      </c>
+      <c r="R16">
+        <v>6.206581991840999</v>
+      </c>
+      <c r="S16">
+        <v>6.228620372320885E-06</v>
+      </c>
+      <c r="T16">
+        <v>6.228620372320885E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.384626</v>
+      </c>
+      <c r="I17">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J17">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.382477</v>
+      </c>
+      <c r="N17">
+        <v>55.147431</v>
+      </c>
+      <c r="O17">
+        <v>0.06380158579420245</v>
+      </c>
+      <c r="P17">
+        <v>0.06380158579420243</v>
+      </c>
+      <c r="Q17">
+        <v>2.356792866200666</v>
+      </c>
+      <c r="R17">
+        <v>21.211135795806</v>
+      </c>
+      <c r="S17">
+        <v>2.128645246473794E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.128645246473794E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.384626</v>
+      </c>
+      <c r="I18">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J18">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>82.64333833333332</v>
+      </c>
+      <c r="N18">
+        <v>247.930015</v>
+      </c>
+      <c r="O18">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="P18">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="Q18">
+        <v>10.59559221659889</v>
+      </c>
+      <c r="R18">
+        <v>95.36032994938999</v>
+      </c>
+      <c r="S18">
+        <v>9.569893616403028E-05</v>
+      </c>
+      <c r="T18">
+        <v>9.569893616403031E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.384626</v>
+      </c>
+      <c r="I19">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J19">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>91.25099666666667</v>
+      </c>
+      <c r="N19">
+        <v>273.75299</v>
+      </c>
+      <c r="O19">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="P19">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="Q19">
+        <v>11.69916861463778</v>
+      </c>
+      <c r="R19">
+        <v>105.29251753174</v>
+      </c>
+      <c r="S19">
+        <v>0.00010566639103669</v>
+      </c>
+      <c r="T19">
+        <v>0.0001056663910366901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.384626</v>
+      </c>
+      <c r="I20">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J20">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>81.28845566666666</v>
+      </c>
+      <c r="N20">
+        <v>243.865367</v>
+      </c>
+      <c r="O20">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="P20">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="Q20">
+        <v>10.42188451641578</v>
+      </c>
+      <c r="R20">
+        <v>93.796960647742</v>
+      </c>
+      <c r="S20">
+        <v>9.413001563828736E-05</v>
+      </c>
+      <c r="T20">
+        <v>9.413001563828739E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.384626</v>
+      </c>
+      <c r="I21">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J21">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="N21">
+        <v>43.662509</v>
+      </c>
+      <c r="O21">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="P21">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="Q21">
+        <v>1.865970687403778</v>
+      </c>
+      <c r="R21">
+        <v>16.793736186634</v>
+      </c>
+      <c r="S21">
+        <v>1.685336751805706E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.685336751805706E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H22">
+        <v>16.227444</v>
+      </c>
+      <c r="I22">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J22">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>18.382477</v>
+      </c>
+      <c r="N22">
+        <v>55.147431</v>
+      </c>
+      <c r="O22">
+        <v>0.06380158579420245</v>
+      </c>
+      <c r="P22">
+        <v>0.06380158579420243</v>
+      </c>
+      <c r="Q22">
+        <v>99.43353869959601</v>
+      </c>
+      <c r="R22">
+        <v>894.9018482963641</v>
+      </c>
+      <c r="S22">
+        <v>0.0008980794728650612</v>
+      </c>
+      <c r="T22">
+        <v>0.0008980794728650612</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H23">
+        <v>16.227444</v>
+      </c>
+      <c r="I23">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J23">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>82.64333833333332</v>
+      </c>
+      <c r="N23">
+        <v>247.930015</v>
+      </c>
+      <c r="O23">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="P23">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="Q23">
+        <v>447.0300482590733</v>
+      </c>
+      <c r="R23">
+        <v>4023.27043433166</v>
+      </c>
+      <c r="S23">
+        <v>0.004037556294845842</v>
+      </c>
+      <c r="T23">
+        <v>0.004037556294845842</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.50272055453184</v>
-      </c>
-      <c r="H16">
-        <v>4.50272055453184</v>
-      </c>
-      <c r="I16">
-        <v>0.0121505363053316</v>
-      </c>
-      <c r="J16">
-        <v>0.0121505363053316</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>13.1962261092722</v>
-      </c>
-      <c r="N16">
-        <v>13.1962261092722</v>
-      </c>
-      <c r="O16">
-        <v>0.04687428951678264</v>
-      </c>
-      <c r="P16">
-        <v>0.04687428951678264</v>
-      </c>
-      <c r="Q16">
-        <v>59.41891854446966</v>
-      </c>
-      <c r="R16">
-        <v>59.41891854446966</v>
-      </c>
-      <c r="S16">
-        <v>0.0005695477565602917</v>
-      </c>
-      <c r="T16">
-        <v>0.0005695477565602917</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H24">
+        <v>16.227444</v>
+      </c>
+      <c r="I24">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J24">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>91.25099666666667</v>
+      </c>
+      <c r="N24">
+        <v>273.75299</v>
+      </c>
+      <c r="O24">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="P24">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="Q24">
+        <v>493.5901461175068</v>
+      </c>
+      <c r="R24">
+        <v>4442.311315057561</v>
+      </c>
+      <c r="S24">
+        <v>0.004458085109248958</v>
+      </c>
+      <c r="T24">
+        <v>0.004458085109248959</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H25">
+        <v>16.227444</v>
+      </c>
+      <c r="I25">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J25">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>81.28845566666666</v>
+      </c>
+      <c r="N25">
+        <v>243.865367</v>
+      </c>
+      <c r="O25">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="P25">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="Q25">
+        <v>439.7012873924388</v>
+      </c>
+      <c r="R25">
+        <v>3957.311586531948</v>
+      </c>
+      <c r="S25">
+        <v>0.003971363239847105</v>
+      </c>
+      <c r="T25">
+        <v>0.003971363239847106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H26">
+        <v>16.227444</v>
+      </c>
+      <c r="I26">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J26">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="N26">
+        <v>43.662509</v>
+      </c>
+      <c r="O26">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="P26">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="Q26">
+        <v>78.72565774411068</v>
+      </c>
+      <c r="R26">
+        <v>708.5309196969961</v>
+      </c>
+      <c r="S26">
+        <v>0.0007110467768967515</v>
+      </c>
+      <c r="T26">
+        <v>0.0007110467768967515</v>
       </c>
     </row>
   </sheetData>
